--- a/AAII_Financials/Quarterly/COSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>COSO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,90 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
-        <v>43555</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E8" s="3">
         <v>10500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9600</v>
       </c>
-      <c r="F8" s="3">
-        <v>9500</v>
-      </c>
       <c r="G8" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="H8" s="3">
-        <v>7800</v>
+        <v>8500</v>
       </c>
       <c r="I8" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K8" s="3">
         <v>7100</v>
       </c>
-      <c r="J8" s="3">
-        <v>7100</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -770,8 +776,11 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +886,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +963,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E17" s="3">
         <v>6400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6100</v>
       </c>
-      <c r="F17" s="3">
-        <v>7900</v>
-      </c>
       <c r="G17" s="3">
-        <v>5300</v>
+        <v>5800</v>
       </c>
       <c r="H17" s="3">
-        <v>5700</v>
+        <v>6900</v>
       </c>
       <c r="I17" s="3">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="J17" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K17" s="3">
         <v>7200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H18" s="3">
         <v>1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3100</v>
       </c>
-      <c r="H18" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1100</v>
-      </c>
       <c r="J18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,37 +1041,41 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,95 +1103,107 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1500</v>
       </c>
       <c r="F22" s="3">
         <v>1500</v>
       </c>
       <c r="G22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1300</v>
       </c>
-      <c r="I22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
-        <v>200</v>
-      </c>
       <c r="G24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J24" s="3">
+        <v>200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1231,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1423,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1519,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
-        <v>43555</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1618,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E41" s="3">
         <v>123500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>52400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
+        <v>48300</v>
+      </c>
+      <c r="H41" s="3">
         <v>49300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>40400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>51900</v>
       </c>
-      <c r="I41" s="3">
-        <v>42100</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>67700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1680,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1712,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1744,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1678,8 +1776,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1707,66 +1808,75 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>930200</v>
+      </c>
+      <c r="E47" s="3">
         <v>921900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>858600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
+        <v>677100</v>
+      </c>
+      <c r="H47" s="3">
         <v>608100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>598500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>559000</v>
       </c>
-      <c r="I47" s="3">
-        <v>521900</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>467100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>439500</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E48" s="3">
         <v>16200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
+        <v>14800</v>
+      </c>
+      <c r="H48" s="3">
         <v>14300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>14100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>14000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
+        <v>12000</v>
+      </c>
+      <c r="L48" s="3">
         <v>12100</v>
       </c>
-      <c r="J48" s="3">
-        <v>12000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>12100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1777,7 +1887,7 @@
         <v>6300</v>
       </c>
       <c r="F49" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="G49" s="3">
         <v>6400</v>
@@ -1789,13 +1899,16 @@
         <v>6400</v>
       </c>
       <c r="J49" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K49" s="3">
         <v>6300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1968,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E52" s="3">
         <v>9800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
+        <v>10800</v>
+      </c>
+      <c r="I52" s="3">
         <v>11300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>11800</v>
       </c>
-      <c r="I52" s="3">
-        <v>11900</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2032,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1147500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1103900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>963900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
+        <v>777400</v>
+      </c>
+      <c r="H54" s="3">
         <v>708500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>690600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>662700</v>
       </c>
-      <c r="I54" s="3">
-        <v>615300</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>584100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>559600</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2094,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1994,37 +2124,43 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>891600</v>
+      </c>
+      <c r="E58" s="3">
         <v>857000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>789100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
+        <v>660200</v>
+      </c>
+      <c r="H58" s="3">
         <v>601100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>574400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>568400</v>
       </c>
-      <c r="I58" s="3">
-        <v>541700</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>513300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>489700</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2052,8 +2188,11 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2081,37 +2220,43 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E61" s="3">
         <v>142200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>73700</v>
-      </c>
-      <c r="F61" s="3">
-        <v>10000</v>
       </c>
       <c r="G61" s="3">
         <v>20000</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I61" s="3">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="J61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2284,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2380,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1045500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1004300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>867000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
+        <v>683900</v>
+      </c>
+      <c r="H66" s="3">
         <v>616200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>599000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>572300</v>
       </c>
-      <c r="I66" s="3">
-        <v>546400</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>516300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>492600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2554,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-32300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-34400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="H72" s="3">
         <v>-37000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-37600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-38900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-39600</v>
       </c>
-      <c r="J72" s="3">
-        <v>-39600</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-39700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2682,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E76" s="3">
         <v>99600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>96900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
+        <v>93600</v>
+      </c>
+      <c r="H76" s="3">
         <v>92300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>91500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>90300</v>
       </c>
-      <c r="I76" s="3">
-        <v>68900</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>67800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2746,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
-        <v>43555</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2831,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2861,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3021,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2837,8 +3053,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3069,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3099,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3163,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3195,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +3337,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3124,8 +3369,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3401,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3180,6 +3431,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>COSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,97 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,8 +786,11 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,8 +821,11 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,40 +906,46 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
         <v>1400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E17" s="3">
         <v>8600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E18" s="3">
         <v>3000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,17 +1075,18 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1060,22 +1094,25 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1106,104 +1143,116 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
         <v>1400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>800</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E26" s="3">
         <v>1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E27" s="3">
         <v>1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,17 +1493,20 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -1444,54 +1514,60 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E33" s="3">
         <v>1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E35" s="3">
         <v>1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,40 +1705,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E41" s="3">
         <v>157000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>123500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>52400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>48300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>49300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>40400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>51900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>67700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,8 +1773,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1715,8 +1808,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1747,8 +1843,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1779,8 +1878,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1811,72 +1913,81 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1112500</v>
+      </c>
+      <c r="E47" s="3">
         <v>930200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>921900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>858600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>677100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>608100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>598500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>559000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>467100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>439500</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E48" s="3">
         <v>16400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1890,7 +2001,7 @@
         <v>6300</v>
       </c>
       <c r="G49" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H49" s="3">
         <v>6400</v>
@@ -1902,13 +2013,16 @@
         <v>6400</v>
       </c>
       <c r="K49" s="3">
+        <v>6400</v>
+      </c>
+      <c r="L49" s="3">
         <v>6300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,40 +2088,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E52" s="3">
         <v>10100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>10800</v>
       </c>
       <c r="H52" s="3">
         <v>10800</v>
       </c>
       <c r="I52" s="3">
+        <v>10800</v>
+      </c>
+      <c r="J52" s="3">
         <v>11300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,40 +2158,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1180600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1147500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1103900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>963900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>777400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>708500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>690600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>662700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>584100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>559600</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,8 +2225,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2127,40 +2258,46 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1020500</v>
+      </c>
+      <c r="E58" s="3">
         <v>891600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>857000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>789100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>660200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>601100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>574400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>568400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>513300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>489700</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2191,8 +2328,11 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2223,40 +2363,46 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E61" s="3">
         <v>146000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>142200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>73700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>20000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>20000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2287,8 +2433,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,40 +2538,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1074800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1045500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1004300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>867000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>683900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>616200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>599000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>572300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>516300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>492600</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,40 +2728,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-30600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-32300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-34400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-36000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-37000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-37600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-38900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-39600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-39700</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,40 +2868,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>105800</v>
+      </c>
+      <c r="E76" s="3">
         <v>102000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>99600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>96900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>93600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>92300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>91500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>90300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>67800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E81" s="3">
         <v>1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,8 +3030,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2864,8 +3063,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,8 +3238,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3056,8 +3273,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,8 +3290,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3102,8 +3323,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,8 +3393,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3198,8 +3428,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,8 +3583,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3372,8 +3618,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3404,8 +3653,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3434,6 +3686,9 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>COSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,104 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
         <v>12000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -789,8 +796,11 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -824,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,43 +926,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
         <v>1400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
         <v>6600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
         <v>5400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,20 +1109,21 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1097,22 +1131,25 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1146,113 +1183,125 @@
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
         <v>4000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>800</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
         <v>3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
         <v>3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,20 +1563,23 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1517,57 +1587,63 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
         <v>3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
         <v>3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,43 +1792,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E41" s="3">
         <v>4900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>157000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>123500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>52400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>48300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>49300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>40400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>51900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>67700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,8 +1866,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1811,8 +1904,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,8 +1942,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1881,8 +1980,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1916,78 +2018,87 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1187300</v>
+      </c>
+      <c r="E47" s="3">
         <v>1112500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>930200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>921900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>858600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>677100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>608100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>598500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>559000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>467100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>439500</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E48" s="3">
         <v>16700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2004,7 +2115,7 @@
         <v>6300</v>
       </c>
       <c r="H49" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="I49" s="3">
         <v>6400</v>
@@ -2016,13 +2127,16 @@
         <v>6400</v>
       </c>
       <c r="L49" s="3">
+        <v>6400</v>
+      </c>
+      <c r="M49" s="3">
         <v>6300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,43 +2208,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E52" s="3">
         <v>9900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>10800</v>
       </c>
       <c r="I52" s="3">
         <v>10800</v>
       </c>
       <c r="J52" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K52" s="3">
         <v>11300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1262000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1180600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1147500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1103900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>963900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>777400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>708500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>690600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>662700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>584100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>559600</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,8 +2356,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2261,43 +2392,49 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1109900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1020500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>891600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>857000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>789100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>660200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>601100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>574400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>568400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>513300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>489700</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2331,8 +2468,11 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2366,43 +2506,49 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>45700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>146000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>142200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>73700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>20000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>20000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
         <v>1074800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1045500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1004300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>867000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>683900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>616200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>599000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>572300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>516300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>492600</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
         <v>-27500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-30600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-32300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-34400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-36000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-37000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-37600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-38900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-39600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-39700</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3">
         <v>105800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>102000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>99600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>96900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>93600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>92300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>91500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>90300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>67800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
         <v>3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3066,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,8 +3455,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3276,8 +3493,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3326,8 +3547,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,8 +3623,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3431,8 +3661,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,8 +3829,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3621,8 +3867,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,8 +3905,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3689,6 +3941,9 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>COSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,111 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
+      <c r="D8" s="3">
+        <v>13100</v>
       </c>
       <c r="E8" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F8" s="3">
         <v>12000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -799,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -940,35 +960,38 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
         <v>1400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>7900</v>
       </c>
       <c r="E17" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F17" s="3">
         <v>6600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>5200</v>
       </c>
       <c r="E18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F18" s="3">
         <v>5400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,23 +1143,24 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1134,22 +1168,25 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1186,8 +1223,11 @@
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1195,113 +1235,122 @@
         <v>1100</v>
       </c>
       <c r="E22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
+      <c r="D23" s="3">
+        <v>4200</v>
       </c>
       <c r="E23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F23" s="3">
         <v>4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>800</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
+      <c r="D24" s="3">
+        <v>900</v>
       </c>
       <c r="E24" s="3">
+        <v>900</v>
+      </c>
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>3300</v>
       </c>
       <c r="E26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F26" s="3">
         <v>3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>3300</v>
       </c>
       <c r="E27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F27" s="3">
         <v>3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,23 +1633,26 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1590,60 +1660,66 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>3300</v>
       </c>
       <c r="E33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F33" s="3">
         <v>3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>3300</v>
       </c>
       <c r="E35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F35" s="3">
         <v>3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E41" s="3">
         <v>10400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>157000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>123500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>52400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>48300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>49300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>40400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>51900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>67700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +1959,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,8 +2041,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1983,8 +2082,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2021,89 +2123,98 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1267200</v>
+      </c>
+      <c r="E47" s="3">
         <v>1187300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1112500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>930200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>921900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>858600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>677100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>608100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>598500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>559000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>467100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>439500</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E48" s="3">
         <v>17200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="E49" s="3">
         <v>6300</v>
@@ -2118,7 +2229,7 @@
         <v>6300</v>
       </c>
       <c r="I49" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="J49" s="3">
         <v>6400</v>
@@ -2130,13 +2241,16 @@
         <v>6400</v>
       </c>
       <c r="M49" s="3">
+        <v>6400</v>
+      </c>
+      <c r="N49" s="3">
         <v>6300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E52" s="3">
         <v>9800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>10800</v>
       </c>
       <c r="J52" s="3">
         <v>10800</v>
       </c>
       <c r="K52" s="3">
+        <v>10800</v>
+      </c>
+      <c r="L52" s="3">
         <v>11300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1333300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1262000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1180600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1147500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1103900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>963900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>777400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>708500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>690600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>662700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>584100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>559600</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2395,46 +2526,52 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1168400</v>
+      </c>
+      <c r="E58" s="3">
         <v>1109900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1020500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>891600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>857000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>789100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>660200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>601100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>574400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>568400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>513300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>489700</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2471,8 +2608,11 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2509,46 +2649,52 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>34600</v>
       </c>
       <c r="E61" s="3">
+        <v>34600</v>
+      </c>
+      <c r="F61" s="3">
         <v>45700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>146000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>142200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>73700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>20000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>20000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
+      <c r="D66" s="3">
+        <v>1219600</v>
       </c>
       <c r="E66" s="3">
+        <v>1152100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1074800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1045500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1004300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>867000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>683900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>616200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>599000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>572300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>516300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>492600</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
+      <c r="D72" s="3">
+        <v>-21000</v>
       </c>
       <c r="E72" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-27500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-30600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-32300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-34400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-36000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-37000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-37600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-38900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-39600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-39700</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
+      <c r="D76" s="3">
+        <v>113700</v>
       </c>
       <c r="E76" s="3">
+        <v>109800</v>
+      </c>
+      <c r="F76" s="3">
         <v>105800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>102000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>99600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>96900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>93600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>92300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>91500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>90300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>67800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>3300</v>
       </c>
       <c r="E81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F81" s="3">
         <v>3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,8 +3672,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3496,8 +3713,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4075,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3870,8 +4116,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,8 +4157,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3944,6 +4196,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COSO_QTR_FIN.xlsx
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13100</v>
+        <v>37700</v>
       </c>
       <c r="E8" s="3">
         <v>12500</v>
@@ -1051,7 +1051,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7900</v>
+        <v>21800</v>
       </c>
       <c r="E17" s="3">
         <v>7200</v>
@@ -1092,7 +1092,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5200</v>
+        <v>15900</v>
       </c>
       <c r="E18" s="3">
         <v>5300</v>
@@ -1232,7 +1232,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1100</v>
+        <v>3500</v>
       </c>
       <c r="E22" s="3">
         <v>1100</v>
@@ -1273,7 +1273,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4200</v>
+        <v>12400</v>
       </c>
       <c r="E23" s="3">
         <v>4200</v>
@@ -1314,7 +1314,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>900</v>
+        <v>2800</v>
       </c>
       <c r="E24" s="3">
         <v>900</v>
@@ -1396,7 +1396,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3300</v>
+        <v>9600</v>
       </c>
       <c r="E26" s="3">
         <v>3300</v>
@@ -1437,7 +1437,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3300</v>
+        <v>9600</v>
       </c>
       <c r="E27" s="3">
         <v>3300</v>
@@ -1683,7 +1683,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3300</v>
+        <v>9600</v>
       </c>
       <c r="E33" s="3">
         <v>3300</v>
@@ -1765,7 +1765,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3300</v>
+        <v>9600</v>
       </c>
       <c r="E35" s="3">
         <v>3300</v>
@@ -3377,7 +3377,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3300</v>
+        <v>9600</v>
       </c>
       <c r="E81" s="3">
         <v>3300</v>

--- a/AAII_Financials/Quarterly/COSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>COSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,117 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>37700</v>
+        <v>15900</v>
       </c>
       <c r="E8" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F8" s="3">
         <v>12500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12000</v>
       </c>
-      <c r="G8" s="3">
-        <v>11600</v>
-      </c>
       <c r="H8" s="3">
+        <v>12300</v>
+      </c>
+      <c r="I8" s="3">
         <v>10500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -809,8 +815,11 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +879,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +965,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -963,35 +982,38 @@
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
         <v>1400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1070,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21800</v>
+        <v>11600</v>
       </c>
       <c r="E17" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F17" s="3">
         <v>7200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6600</v>
       </c>
-      <c r="G17" s="3">
-        <v>8600</v>
-      </c>
       <c r="H17" s="3">
+        <v>8800</v>
+      </c>
+      <c r="I17" s="3">
         <v>6400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>15900</v>
+        <v>4300</v>
       </c>
       <c r="E18" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F18" s="3">
         <v>5300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5400</v>
       </c>
-      <c r="G18" s="3">
-        <v>3000</v>
-      </c>
       <c r="H18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I18" s="3">
         <v>4100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1176,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1159,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1171,22 +1204,25 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1226,131 +1262,143 @@
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="E22" s="3">
         <v>1100</v>
       </c>
       <c r="F22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12400</v>
+        <v>3100</v>
       </c>
       <c r="E23" s="3">
         <v>4200</v>
       </c>
       <c r="F23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G23" s="3">
         <v>4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>800</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
         <v>900</v>
       </c>
       <c r="F24" s="3">
+        <v>900</v>
+      </c>
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9600</v>
+        <v>2700</v>
       </c>
       <c r="E26" s="3">
         <v>3300</v>
       </c>
       <c r="F26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G26" s="3">
         <v>3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9600</v>
+        <v>2700</v>
       </c>
       <c r="E27" s="3">
         <v>3300</v>
       </c>
       <c r="F27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G27" s="3">
         <v>3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1702,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1651,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1663,63 +1732,69 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9600</v>
+        <v>2700</v>
       </c>
       <c r="E33" s="3">
         <v>3300</v>
       </c>
       <c r="F33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G33" s="3">
         <v>3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9600</v>
+        <v>2700</v>
       </c>
       <c r="E35" s="3">
         <v>3300</v>
       </c>
       <c r="F35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G35" s="3">
         <v>3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +1965,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>157000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>123500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>52400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>48300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>49300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>40400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>51900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>67700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2051,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,8 +2095,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,8 +2139,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2085,8 +2183,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2126,49 +2227,55 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1515200</v>
+      </c>
+      <c r="E47" s="3">
         <v>1267200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1187300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1112500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>930200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>921900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>858600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>677100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>608100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>598500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>559000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>467100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>439500</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2176,48 +2283,51 @@
         <v>17700</v>
       </c>
       <c r="E48" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F48" s="3">
         <v>17200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>16200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E49" s="3">
         <v>6400</v>
-      </c>
-      <c r="E49" s="3">
-        <v>6300</v>
       </c>
       <c r="F49" s="3">
         <v>6300</v>
@@ -2232,7 +2342,7 @@
         <v>6300</v>
       </c>
       <c r="J49" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="K49" s="3">
         <v>6400</v>
@@ -2244,13 +2354,16 @@
         <v>6400</v>
       </c>
       <c r="N49" s="3">
+        <v>6400</v>
+      </c>
+      <c r="O49" s="3">
         <v>6300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2447,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E52" s="3">
         <v>10500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>10800</v>
       </c>
       <c r="K52" s="3">
         <v>10800</v>
       </c>
       <c r="L52" s="3">
+        <v>10800</v>
+      </c>
+      <c r="M52" s="3">
         <v>11300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2535,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1611700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1333300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1262000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1180600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1147500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1103900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>963900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>777400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>708500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>690600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>662700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>584100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>559600</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2617,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2529,49 +2659,55 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1424100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1168400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1109900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1020500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>891600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>857000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>789100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>660200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>601100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>574400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>568400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>513300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>489700</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2611,8 +2747,11 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2652,49 +2791,55 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>34600</v>
+        <v>44600</v>
       </c>
       <c r="E61" s="3">
         <v>34600</v>
       </c>
       <c r="F61" s="3">
+        <v>34600</v>
+      </c>
+      <c r="G61" s="3">
         <v>45700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>146000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>142200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>73700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>20000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>20000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2879,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3011,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1486700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1219600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1152100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1074800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1045500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1004300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>867000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>683900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>616200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>599000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>572300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>516300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>492600</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3249,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-21000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-27500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-30600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-32300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-34400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-36000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-37000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-37600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-38900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-39600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-39700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3425,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>124900</v>
+      </c>
+      <c r="E76" s="3">
         <v>113700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>109800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>105800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>102000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>99600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>96900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>93600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>92300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>91500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>90300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>67800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9600</v>
+        <v>2700</v>
       </c>
       <c r="E81" s="3">
         <v>3300</v>
       </c>
       <c r="F81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G81" s="3">
         <v>3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3668,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +3888,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3716,8 +3932,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3952,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3774,8 +3994,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4082,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3897,8 +4126,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4320,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4119,8 +4364,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4408,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4199,6 +4450,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>COSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,117 +665,131 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F8" s="3">
         <v>15900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>13100</v>
       </c>
-      <c r="F8" s="3">
-        <v>12500</v>
-      </c>
-      <c r="G8" s="3">
-        <v>12000</v>
-      </c>
       <c r="H8" s="3">
+        <v>12600</v>
+      </c>
+      <c r="I8" s="3">
+        <v>11900</v>
+      </c>
+      <c r="J8" s="3">
         <v>12300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>10500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>9600</v>
-      </c>
-      <c r="K8" s="3">
-        <v>8600</v>
-      </c>
-      <c r="L8" s="3">
-        <v>8500</v>
       </c>
       <c r="M8" s="3">
         <v>8600</v>
       </c>
       <c r="N8" s="3">
+        <v>8500</v>
+      </c>
+      <c r="O8" s="3">
+        <v>8600</v>
+      </c>
+      <c r="P8" s="3">
         <v>8300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>7100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -818,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -862,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -924,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -985,35 +1025,41 @@
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>1400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F17" s="3">
         <v>11600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>7900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K17" s="3">
+        <v>6400</v>
+      </c>
+      <c r="L17" s="3">
+        <v>6100</v>
+      </c>
+      <c r="M17" s="3">
+        <v>5800</v>
+      </c>
+      <c r="N17" s="3">
+        <v>6900</v>
+      </c>
+      <c r="O17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="P17" s="3">
+        <v>6100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>7200</v>
       </c>
-      <c r="G17" s="3">
-        <v>6600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>8800</v>
-      </c>
-      <c r="I17" s="3">
-        <v>6400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>6100</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="R17" s="3">
         <v>5800</v>
       </c>
-      <c r="L17" s="3">
-        <v>6900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>5500</v>
-      </c>
-      <c r="N17" s="3">
-        <v>6100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>7200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>5800</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F18" s="3">
         <v>4300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>5200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>5300</v>
       </c>
-      <c r="G18" s="3">
-        <v>5400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3500</v>
-      </c>
       <c r="I18" s="3">
-        <v>4100</v>
+        <v>5300</v>
       </c>
       <c r="J18" s="3">
         <v>3500</v>
       </c>
       <c r="K18" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M18" s="3">
         <v>2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1207,22 +1275,28 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1265,140 +1339,164 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
         <v>1200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1400</v>
       </c>
       <c r="I22" s="3">
         <v>1300</v>
       </c>
       <c r="J22" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K22" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="L22" s="3">
         <v>1500</v>
       </c>
       <c r="M22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O22" s="3">
         <v>1400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F23" s="3">
         <v>3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>4200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>4200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>4000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2800</v>
       </c>
       <c r="J23" s="3">
         <v>2100</v>
       </c>
       <c r="K23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>800</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>400</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
       </c>
       <c r="O24" s="3">
+        <v>400</v>
+      </c>
+      <c r="P24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F26" s="3">
         <v>2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F27" s="3">
         <v>2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1735,66 +1875,78 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F33" s="3">
         <v>2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F35" s="3">
         <v>2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F41" s="3">
         <v>15300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>10400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>157000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>123500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>52400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>48300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>49300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>40400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>51900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>67700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2098,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2186,8 +2384,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2230,110 +2434,128 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1607900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1578700</v>
+      </c>
+      <c r="F47" s="3">
         <v>1515200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1267200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1187300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1112500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>930200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>921900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>858600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>677100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>608100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>598500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>559000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>467100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>439500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F48" s="3">
         <v>17700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>17700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>17200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>16700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>16400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>16200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>15400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>14800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>14300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>14100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>14000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>12000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F49" s="3">
         <v>7600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>6400</v>
-      </c>
-      <c r="F49" s="3">
-        <v>6300</v>
-      </c>
-      <c r="G49" s="3">
-        <v>6300</v>
       </c>
       <c r="H49" s="3">
         <v>6300</v>
@@ -2345,10 +2567,10 @@
         <v>6300</v>
       </c>
       <c r="K49" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="L49" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="M49" s="3">
         <v>6400</v>
@@ -2357,13 +2579,19 @@
         <v>6400</v>
       </c>
       <c r="O49" s="3">
+        <v>6400</v>
+      </c>
+      <c r="P49" s="3">
+        <v>6400</v>
+      </c>
+      <c r="Q49" s="3">
         <v>6300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F52" s="3">
         <v>14500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>10500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>9800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>9900</v>
-      </c>
-      <c r="H52" s="3">
-        <v>10100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>9800</v>
       </c>
       <c r="J52" s="3">
         <v>10100</v>
       </c>
       <c r="K52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="L52" s="3">
+        <v>10100</v>
+      </c>
+      <c r="M52" s="3">
         <v>10800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>10800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>11300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>11800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>12200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1713200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1669600</v>
+      </c>
+      <c r="F54" s="3">
         <v>1611700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1333300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1262000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1180600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1147500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1103900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>963900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>777400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>708500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>690600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>662700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>584100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>559600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2662,52 +2924,64 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1506800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1489300</v>
+      </c>
+      <c r="F58" s="3">
         <v>1424100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1168400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1109900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1020500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>891600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>857000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>789100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>660200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>601100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>574400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>568400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>513300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>489700</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2750,8 +3024,14 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2794,52 +3074,64 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E61" s="3">
         <v>44600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>44600</v>
+      </c>
+      <c r="G61" s="3">
         <v>34600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>34600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>45700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>146000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>142200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>73700</v>
-      </c>
-      <c r="K61" s="3">
-        <v>20000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>10000</v>
       </c>
       <c r="M61" s="3">
         <v>20000</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="O61" s="3">
+        <v>20000</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2882,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1603200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1554000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1486700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1219600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1152100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1074800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1045500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1004300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>867000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>683900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>616200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>599000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>572300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>516300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>492600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-18300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-21000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-24200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-27500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-30600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-32300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-34400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-36000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-37000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-37600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-38900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-39600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-39700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>115700</v>
+      </c>
+      <c r="F76" s="3">
         <v>124900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>113700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>109800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>105800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>102000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>99600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>96900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>93600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>92300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>91500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>90300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>67800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F81" s="3">
         <v>2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3671,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3935,8 +4369,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3997,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4129,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4367,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4453,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>COSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,138 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E8" s="3">
         <v>16400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1031,35 +1051,38 @@
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>1400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E17" s="3">
         <v>10000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E18" s="3">
         <v>6400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>5300</v>
       </c>
       <c r="I18" s="3">
         <v>5300</v>
       </c>
       <c r="J18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K18" s="3">
         <v>3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1281,22 +1315,25 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,158 +1382,170 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E22" s="3">
         <v>1400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1200</v>
       </c>
       <c r="F22" s="3">
         <v>1200</v>
       </c>
       <c r="G22" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H22" s="3">
         <v>1100</v>
       </c>
       <c r="I22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E23" s="3">
         <v>5000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>4200</v>
       </c>
       <c r="H23" s="3">
         <v>4200</v>
       </c>
       <c r="I23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J23" s="3">
         <v>4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>800</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>900</v>
       </c>
       <c r="H24" s="3">
         <v>900</v>
       </c>
       <c r="I24" s="3">
+        <v>900</v>
+      </c>
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3700</v>
+        <v>5300</v>
       </c>
       <c r="E26" s="3">
         <v>3700</v>
       </c>
       <c r="F26" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G26" s="3">
         <v>2700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>3300</v>
       </c>
       <c r="H26" s="3">
         <v>3300</v>
       </c>
       <c r="I26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J26" s="3">
         <v>3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3700</v>
+        <v>5300</v>
       </c>
       <c r="E27" s="3">
         <v>3700</v>
       </c>
       <c r="F27" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G27" s="3">
         <v>2700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>3300</v>
       </c>
       <c r="H27" s="3">
         <v>3300</v>
       </c>
       <c r="I27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J27" s="3">
         <v>3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1881,72 +1951,78 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3700</v>
+        <v>5300</v>
       </c>
       <c r="E33" s="3">
         <v>3700</v>
       </c>
       <c r="F33" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G33" s="3">
         <v>2700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>3300</v>
       </c>
       <c r="H33" s="3">
         <v>3300</v>
       </c>
       <c r="I33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J33" s="3">
         <v>3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3700</v>
+        <v>5300</v>
       </c>
       <c r="E35" s="3">
         <v>3700</v>
       </c>
       <c r="F35" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G35" s="3">
         <v>2700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>3300</v>
       </c>
       <c r="H35" s="3">
         <v>3300</v>
       </c>
       <c r="I35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J35" s="3">
         <v>3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E41" s="3">
         <v>12400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>157000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>123500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>52400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>48300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>49300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>40400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>51900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>67700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,125 +2542,134 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1617500</v>
+      </c>
+      <c r="E47" s="3">
         <v>1607900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1578700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1515200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1267200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1187300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1112500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>930200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>921900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>858600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>677100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>608100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>598500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>559000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>467100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>439500</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17500</v>
+        <v>18100</v>
       </c>
       <c r="E48" s="3">
         <v>17500</v>
       </c>
       <c r="F48" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="G48" s="3">
         <v>17700</v>
       </c>
       <c r="H48" s="3">
+        <v>17700</v>
+      </c>
+      <c r="I48" s="3">
         <v>17200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E49" s="3">
         <v>7400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6400</v>
-      </c>
-      <c r="H49" s="3">
-        <v>6300</v>
       </c>
       <c r="I49" s="3">
         <v>6300</v>
@@ -2573,7 +2684,7 @@
         <v>6300</v>
       </c>
       <c r="M49" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="N49" s="3">
         <v>6400</v>
@@ -2585,13 +2696,16 @@
         <v>6400</v>
       </c>
       <c r="Q49" s="3">
+        <v>6400</v>
+      </c>
+      <c r="R49" s="3">
         <v>6300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E52" s="3">
         <v>19400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>10800</v>
       </c>
       <c r="N52" s="3">
         <v>10800</v>
       </c>
       <c r="O52" s="3">
+        <v>10800</v>
+      </c>
+      <c r="P52" s="3">
         <v>11300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1722900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1713200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1669600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1611700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1333300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1262000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1180600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1147500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1103900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>963900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>777400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>708500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>690600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>662700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>584100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>559600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,58 +3061,64 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1540100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1506800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1489300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1424100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1168400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1109900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1020500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>891600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>857000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>789100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>660200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>601100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>574400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>568400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>513300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>489700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,58 +3220,64 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E61" s="3">
         <v>74600</v>
-      </c>
-      <c r="E61" s="3">
-        <v>44600</v>
       </c>
       <c r="F61" s="3">
         <v>44600</v>
       </c>
       <c r="G61" s="3">
-        <v>34600</v>
+        <v>44600</v>
       </c>
       <c r="H61" s="3">
         <v>34600</v>
       </c>
       <c r="I61" s="3">
+        <v>34600</v>
+      </c>
+      <c r="J61" s="3">
         <v>45700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>146000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>142200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>73700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1612400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1603200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1554000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1486700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1219600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1152100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1074800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1045500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1004300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>867000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>683900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>616200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>599000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>572300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>516300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>492600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-21000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-24200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-27500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-30600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-32300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-34400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-36000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-37000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-37600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-38900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-39600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-39700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>110500</v>
+      </c>
+      <c r="E76" s="3">
         <v>110000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>115700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>124900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>113700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>109800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>105800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>102000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>99600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>96900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>93600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>92300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>91500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>90300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>67800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3700</v>
+        <v>5300</v>
       </c>
       <c r="E81" s="3">
         <v>3700</v>
       </c>
       <c r="F81" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G81" s="3">
         <v>2700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>3300</v>
       </c>
       <c r="H81" s="3">
         <v>3300</v>
       </c>
       <c r="I81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J81" s="3">
         <v>3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>COSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,144 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E8" s="3">
         <v>18000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +854,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +934,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1044,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1054,35 +1073,38 @@
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>1400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E17" s="3">
         <v>8800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E18" s="3">
         <v>9200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>5300</v>
       </c>
       <c r="J18" s="3">
         <v>5300</v>
       </c>
       <c r="K18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="L18" s="3">
         <v>3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1311,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1318,22 +1351,25 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>900</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,167 +1421,179 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E22" s="3">
         <v>2500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1200</v>
       </c>
       <c r="G22" s="3">
         <v>1200</v>
       </c>
       <c r="H22" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I22" s="3">
         <v>1100</v>
       </c>
       <c r="J22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E23" s="3">
         <v>6700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>4200</v>
       </c>
       <c r="I23" s="3">
         <v>4200</v>
       </c>
       <c r="J23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K23" s="3">
         <v>4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>800</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>900</v>
       </c>
       <c r="I24" s="3">
         <v>900</v>
       </c>
       <c r="J24" s="3">
+        <v>900</v>
+      </c>
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E26" s="3">
         <v>5300</v>
-      </c>
-      <c r="E26" s="3">
-        <v>3700</v>
       </c>
       <c r="F26" s="3">
         <v>3700</v>
       </c>
       <c r="G26" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H26" s="3">
         <v>2700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>3300</v>
       </c>
       <c r="I26" s="3">
         <v>3300</v>
       </c>
       <c r="J26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K26" s="3">
         <v>3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E27" s="3">
         <v>5300</v>
-      </c>
-      <c r="E27" s="3">
-        <v>3700</v>
       </c>
       <c r="F27" s="3">
         <v>3700</v>
       </c>
       <c r="G27" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H27" s="3">
         <v>2700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>3300</v>
       </c>
       <c r="I27" s="3">
         <v>3300</v>
       </c>
       <c r="J27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K27" s="3">
         <v>3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1981,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1954,75 +2023,81 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-900</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E33" s="3">
         <v>5300</v>
-      </c>
-      <c r="E33" s="3">
-        <v>3700</v>
       </c>
       <c r="F33" s="3">
         <v>3700</v>
       </c>
       <c r="G33" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H33" s="3">
         <v>2700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>3300</v>
       </c>
       <c r="I33" s="3">
         <v>3300</v>
       </c>
       <c r="J33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K33" s="3">
         <v>3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E35" s="3">
         <v>5300</v>
-      </c>
-      <c r="E35" s="3">
-        <v>3700</v>
       </c>
       <c r="F35" s="3">
         <v>3700</v>
       </c>
       <c r="G35" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H35" s="3">
         <v>2700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>3300</v>
       </c>
       <c r="I35" s="3">
         <v>3300</v>
       </c>
       <c r="J35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K35" s="3">
         <v>3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2312,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E41" s="3">
         <v>7200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>157000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>123500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>52400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>48300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>49300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>40400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>51900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>67700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2422,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2478,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2534,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2590,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,134 +2646,143 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1711900</v>
+      </c>
+      <c r="E47" s="3">
         <v>1617500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1607900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1578700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1515200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1267200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1187300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1112500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>930200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>921900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>858600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>677100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>608100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>598500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>559000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>467100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>439500</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E48" s="3">
         <v>18100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>17500</v>
       </c>
       <c r="F48" s="3">
         <v>17500</v>
       </c>
       <c r="G48" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="H48" s="3">
         <v>17700</v>
       </c>
       <c r="I48" s="3">
+        <v>17700</v>
+      </c>
+      <c r="J48" s="3">
         <v>17200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E49" s="3">
         <v>7200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>6300</v>
       </c>
       <c r="J49" s="3">
         <v>6300</v>
@@ -2687,7 +2797,7 @@
         <v>6300</v>
       </c>
       <c r="N49" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="O49" s="3">
         <v>6400</v>
@@ -2699,13 +2809,16 @@
         <v>6400</v>
       </c>
       <c r="R49" s="3">
+        <v>6400</v>
+      </c>
+      <c r="S49" s="3">
         <v>6300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2926,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E52" s="3">
         <v>21200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>10800</v>
       </c>
       <c r="O52" s="3">
         <v>10800</v>
       </c>
       <c r="P52" s="3">
+        <v>10800</v>
+      </c>
+      <c r="Q52" s="3">
         <v>11300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3038,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1835500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1722900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1713200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1669600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1611700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1333300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1262000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1180600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1147500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1103900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>963900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>777400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>708500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>690600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>662700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>584100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>559600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3140,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,61 +3194,67 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1548600</v>
+      </c>
+      <c r="E58" s="3">
         <v>1540100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1506800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1489300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1424100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1168400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1109900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1020500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>891600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>857000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>789100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>660200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>601100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>574400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>568400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>513300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>489700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3170,8 +3306,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,61 +3362,67 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>140700</v>
+      </c>
+      <c r="E61" s="3">
         <v>49600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>74600</v>
-      </c>
-      <c r="F61" s="3">
-        <v>44600</v>
       </c>
       <c r="G61" s="3">
         <v>44600</v>
       </c>
       <c r="H61" s="3">
-        <v>34600</v>
+        <v>44600</v>
       </c>
       <c r="I61" s="3">
         <v>34600</v>
       </c>
       <c r="J61" s="3">
+        <v>34600</v>
+      </c>
+      <c r="K61" s="3">
         <v>45700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>146000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>142200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>73700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3474,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3642,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1716700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1612400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1603200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1554000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1486700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1219600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1152100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1074800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1045500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1004300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>867000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>683900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>616200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>599000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>572300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>516300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>492600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3944,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-21000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-24200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-27500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-30600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-32300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-34400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-36000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-37000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-37600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-38900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-39600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-39700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4168,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>118800</v>
+      </c>
+      <c r="E76" s="3">
         <v>110500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>110000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>115700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>124900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>113700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>109800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>105800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>102000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>99600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>96900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>93600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>92300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>91500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>90300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>67800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E81" s="3">
         <v>5300</v>
-      </c>
-      <c r="E81" s="3">
-        <v>3700</v>
       </c>
       <c r="F81" s="3">
         <v>3700</v>
       </c>
       <c r="G81" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H81" s="3">
         <v>2700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>3300</v>
       </c>
       <c r="I81" s="3">
         <v>3300</v>
       </c>
       <c r="J81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K81" s="3">
         <v>3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4421,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4475,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4755,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4811,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4835,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4889,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5001,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5057,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5303,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5359,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5415,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5469,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>COSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,151 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E8" s="3">
         <v>21100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -857,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -913,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -991,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1076,35 +1096,38 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>1400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E17" s="3">
         <v>9500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E18" s="3">
         <v>11600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>5300</v>
       </c>
       <c r="K18" s="3">
         <v>5300</v>
       </c>
       <c r="L18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="M18" s="3">
         <v>3500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1354,22 +1388,25 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>900</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1424,176 +1461,188 @@
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E22" s="3">
         <v>4400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1200</v>
       </c>
       <c r="H22" s="3">
         <v>1200</v>
       </c>
       <c r="I22" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J22" s="3">
         <v>1100</v>
       </c>
       <c r="K22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E23" s="3">
         <v>7200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>4200</v>
       </c>
       <c r="J23" s="3">
         <v>4200</v>
       </c>
       <c r="K23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="L23" s="3">
         <v>4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>800</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>900</v>
       </c>
       <c r="J24" s="3">
         <v>900</v>
       </c>
       <c r="K24" s="3">
+        <v>900</v>
+      </c>
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E26" s="3">
         <v>5500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>3700</v>
       </c>
       <c r="G26" s="3">
         <v>3700</v>
       </c>
       <c r="H26" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I26" s="3">
         <v>2700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>3300</v>
       </c>
       <c r="J26" s="3">
         <v>3300</v>
       </c>
       <c r="K26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L26" s="3">
         <v>3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E27" s="3">
         <v>5500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>3700</v>
       </c>
       <c r="G27" s="3">
         <v>3700</v>
       </c>
       <c r="H27" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I27" s="3">
         <v>2700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>3300</v>
       </c>
       <c r="J27" s="3">
         <v>3300</v>
       </c>
       <c r="K27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L27" s="3">
         <v>3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2026,78 +2096,84 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E33" s="3">
         <v>5500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>3700</v>
       </c>
       <c r="G33" s="3">
         <v>3700</v>
       </c>
       <c r="H33" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I33" s="3">
         <v>2700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>3300</v>
       </c>
       <c r="J33" s="3">
         <v>3300</v>
       </c>
       <c r="K33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L33" s="3">
         <v>3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E35" s="3">
         <v>5500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>3700</v>
       </c>
       <c r="G35" s="3">
         <v>3700</v>
       </c>
       <c r="H35" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I35" s="3">
         <v>2700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>3300</v>
       </c>
       <c r="J35" s="3">
         <v>3300</v>
       </c>
       <c r="K35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L35" s="3">
         <v>3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E41" s="3">
         <v>19300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>157000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>123500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>52400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>48300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>49300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>40400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>51900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>67700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2481,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2537,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2593,8 +2692,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2649,143 +2751,152 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1907400</v>
+      </c>
+      <c r="E47" s="3">
         <v>1711900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1617500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1607900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1578700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1515200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1267200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1187300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1112500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>930200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>921900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>858600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>677100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>608100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>598500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>559000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>467100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>439500</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E48" s="3">
         <v>18700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>18100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>17500</v>
       </c>
       <c r="G48" s="3">
         <v>17500</v>
       </c>
       <c r="H48" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="I48" s="3">
         <v>17700</v>
       </c>
       <c r="J48" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K48" s="3">
         <v>17200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E49" s="3">
         <v>6900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>6300</v>
       </c>
       <c r="K49" s="3">
         <v>6300</v>
@@ -2800,7 +2911,7 @@
         <v>6300</v>
       </c>
       <c r="O49" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="P49" s="3">
         <v>6400</v>
@@ -2812,13 +2923,16 @@
         <v>6400</v>
       </c>
       <c r="S49" s="3">
+        <v>6400</v>
+      </c>
+      <c r="T49" s="3">
         <v>6300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E52" s="3">
         <v>21800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>19400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10100</v>
-      </c>
-      <c r="O52" s="3">
-        <v>10800</v>
       </c>
       <c r="P52" s="3">
         <v>10800</v>
       </c>
       <c r="Q52" s="3">
+        <v>10800</v>
+      </c>
+      <c r="R52" s="3">
         <v>11300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>12200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2022900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1835500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1722900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1713200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1669600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1611700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1333300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1262000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1180600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1147500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1103900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>963900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>777400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>708500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>690600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>662700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>584100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>559600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3197,64 +3328,70 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1732500</v>
+      </c>
+      <c r="E58" s="3">
         <v>1548600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1540100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1506800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1489300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1424100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1168400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1109900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1020500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>891600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>857000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>789100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>660200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>601100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>574400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>568400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>513300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>489700</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3309,8 +3446,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3365,64 +3505,70 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>127600</v>
+      </c>
+      <c r="E61" s="3">
         <v>140700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>49600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>74600</v>
-      </c>
-      <c r="G61" s="3">
-        <v>44600</v>
       </c>
       <c r="H61" s="3">
         <v>44600</v>
       </c>
       <c r="I61" s="3">
-        <v>34600</v>
+        <v>44600</v>
       </c>
       <c r="J61" s="3">
         <v>34600</v>
       </c>
       <c r="K61" s="3">
+        <v>34600</v>
+      </c>
+      <c r="L61" s="3">
         <v>45700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>146000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>142200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>73700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3477,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1889600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1716700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1612400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1603200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1554000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1486700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1219600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1152100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1074800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1045500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1004300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>867000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>683900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>616200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>599000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>572300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>516300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>492600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-21000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-24200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-27500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-30600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-32300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-34400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-36000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-37000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-37600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-38900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-39600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-39700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>133300</v>
+      </c>
+      <c r="E76" s="3">
         <v>118800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>110500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>110000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>115700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>124900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>113700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>109800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>105800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>102000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>99600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>96900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>93600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>92300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>91500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>90300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>67800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E81" s="3">
         <v>5500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>3700</v>
       </c>
       <c r="G81" s="3">
         <v>3700</v>
       </c>
       <c r="H81" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I81" s="3">
         <v>2700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>3300</v>
       </c>
       <c r="J81" s="3">
         <v>3300</v>
       </c>
       <c r="K81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L81" s="3">
         <v>3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4478,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4814,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4892,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5060,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5362,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5472,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>COSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,165 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>27200</v>
+      </c>
+      <c r="F8" s="3">
         <v>24400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>21100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>18000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>16400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>14600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>15900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>13100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>12600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>11900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>12300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>10500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>9600</v>
-      </c>
-      <c r="P8" s="3">
-        <v>8600</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>8500</v>
       </c>
       <c r="R8" s="3">
         <v>8600</v>
       </c>
       <c r="S8" s="3">
+        <v>8500</v>
+      </c>
+      <c r="T8" s="3">
+        <v>8600</v>
+      </c>
+      <c r="U8" s="3">
         <v>8300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>7100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,8 +881,14 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +946,14 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1101,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1099,35 +1139,41 @@
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>1400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>500</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1257,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F17" s="3">
         <v>7900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>9500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>8800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>10000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>8400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>11600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>8800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>6100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>6900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>5500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>6100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>7200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>18100</v>
+      </c>
+      <c r="F18" s="3">
         <v>16500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>11600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>9200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>6400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>6200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>4300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>5200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>5300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>5300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>3500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>4100</v>
       </c>
       <c r="O18" s="3">
         <v>3500</v>
       </c>
       <c r="P18" s="3">
+        <v>4100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R18" s="3">
         <v>2800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>3100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1412,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1391,22 +1459,28 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>900</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1464,185 +1538,209 @@
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F22" s="3">
         <v>7700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>4400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>2500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1400</v>
       </c>
       <c r="N22" s="3">
         <v>1300</v>
       </c>
       <c r="O22" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="P22" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="Q22" s="3">
         <v>1500</v>
       </c>
       <c r="R22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T22" s="3">
         <v>1400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>1300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F23" s="3">
         <v>8800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>7200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>6700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>5000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>4900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>4200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4000</v>
-      </c>
-      <c r="M23" s="3">
-        <v>2100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>2800</v>
       </c>
       <c r="O23" s="3">
         <v>2100</v>
       </c>
       <c r="P23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R23" s="3">
         <v>1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>800</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="E24" s="3">
         <v>1700</v>
       </c>
       <c r="F24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H24" s="3">
         <v>1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>200</v>
-      </c>
-      <c r="R24" s="3">
-        <v>400</v>
       </c>
       <c r="S24" s="3">
         <v>200</v>
       </c>
       <c r="T24" s="3">
+        <v>400</v>
+      </c>
+      <c r="U24" s="3">
+        <v>200</v>
+      </c>
+      <c r="V24" s="3">
         <v>-100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F26" s="3">
         <v>6800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>5300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>3700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>3700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>100</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F27" s="3">
         <v>6800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>5500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>5300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>3700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>100</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2188,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2099,81 +2239,93 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-900</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F33" s="3">
         <v>6800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>5500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>5300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>3700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>3700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>100</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F35" s="3">
         <v>6800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>5500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>5300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>3700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>3700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>100</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2572,75 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>18100</v>
+      </c>
+      <c r="F41" s="3">
         <v>12200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>19300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>7200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>12400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>15300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>10400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>157000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>123500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>52400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>48300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>49300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>40400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>51900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>67700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2698,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2763,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2828,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2695,8 +2893,14 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,155 +2958,173 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1876600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1841000</v>
+      </c>
+      <c r="F47" s="3">
         <v>1907400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1711900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1617500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1607900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1578700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1515200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1267200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1187300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1112500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>930200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>921900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>858600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>677100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>608100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>598500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>559000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>467100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>439500</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F48" s="3">
         <v>18500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>18700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>18100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>17500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>17500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>17700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>17700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>17200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>16700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>16400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>16200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>15400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>14800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>14300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>14100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>14000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>12000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F49" s="3">
         <v>7000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>6900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>7200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>7400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>7500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>7600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>6400</v>
-      </c>
-      <c r="K49" s="3">
-        <v>6300</v>
-      </c>
-      <c r="L49" s="3">
-        <v>6300</v>
       </c>
       <c r="M49" s="3">
         <v>6300</v>
@@ -2914,10 +3136,10 @@
         <v>6300</v>
       </c>
       <c r="P49" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="Q49" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="R49" s="3">
         <v>6400</v>
@@ -2926,13 +3148,19 @@
         <v>6400</v>
       </c>
       <c r="T49" s="3">
+        <v>6400</v>
+      </c>
+      <c r="U49" s="3">
+        <v>6400</v>
+      </c>
+      <c r="V49" s="3">
         <v>6300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3283,79 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E52" s="3">
         <v>21300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
+        <v>21300</v>
+      </c>
+      <c r="G52" s="3">
         <v>21800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>21200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>19400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>17000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>14500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>10500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>9800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>9900</v>
-      </c>
-      <c r="M52" s="3">
-        <v>10100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>9800</v>
       </c>
       <c r="O52" s="3">
         <v>10100</v>
       </c>
       <c r="P52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>10100</v>
+      </c>
+      <c r="R52" s="3">
         <v>10800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>10800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>11300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>11800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>12200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1998200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1963500</v>
+      </c>
+      <c r="F54" s="3">
         <v>2022900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1835500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1722900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1713200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1669600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1611700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1333300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1262000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1180600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1147500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1103900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>963900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>777400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>708500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>690600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>662700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>584100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>559600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3532,10 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3331,67 +3593,79 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1789200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1758800</v>
+      </c>
+      <c r="F58" s="3">
         <v>1732500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1548600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1540100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1506800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1489300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1424100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1168400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1109900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1020500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>891600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>857000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>789100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>660200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>601100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>574400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>568400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>513300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>489700</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3449,8 +3723,14 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,67 +3788,79 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>32700</v>
+      </c>
+      <c r="F61" s="3">
         <v>127600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>140700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>49600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>74600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>44600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>44600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>34600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>34600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>45700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>146000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>142200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>73700</v>
-      </c>
-      <c r="P61" s="3">
-        <v>20000</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>10000</v>
       </c>
       <c r="R61" s="3">
         <v>20000</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="T61" s="3">
+        <v>20000</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3918,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1857300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1824300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1889600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1716700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1612400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1603200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1554000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1486700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1219600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1152100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1074800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1045500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1004300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>867000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>683900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>616200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>599000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>572300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>516300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>492600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F72" s="3">
         <v>2400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-5600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-10900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-14500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-18300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-21000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-24200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-27500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-30600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-32300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-34400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-37000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-37600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-38900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-39600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-39700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>140900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>139200</v>
+      </c>
+      <c r="F76" s="3">
         <v>133300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>118800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>110500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>110000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>115700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>124900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>113700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>109800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>105800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>102000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>99600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>96900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>93600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>92300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>91500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>90300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>67800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F81" s="3">
         <v>6800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>5500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>5300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>3700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>3700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>100</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +5078,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5403,14 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5034,8 +5468,14 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5497,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5558,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5688,14 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5293,8 +5753,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +6038,14 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5611,8 +6103,14 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +6168,14 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5727,6 +6231,12 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>
